--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T07:36:09+00:00</t>
+    <t>2024-11-08T09:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:29:33+00:00</t>
+    <t>2024-11-08T12:39:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T12:39:52+00:00</t>
+    <t>2024-11-08T13:52:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:52:24+00:00</t>
+    <t>2024-11-08T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T14:00:22+00:00</t>
+    <t>2024-11-08T14:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T14:03:28+00:00</t>
+    <t>2024-11-08T14:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T14:47:13+00:00</t>
+    <t>2024-11-08T15:19:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T15:19:19+00:00</t>
+    <t>2024-11-08T15:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T15:34:22+00:00</t>
+    <t>2024-11-08T16:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:22:03+00:00</t>
+    <t>2024-11-08T16:36:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:36:32+00:00</t>
+    <t>2024-11-08T17:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:59:26+00:00</t>
+    <t>2024-11-08T18:28:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T18:28:24+00:00</t>
+    <t>2024-11-08T18:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T18:59:45+00:00</t>
+    <t>2024-11-12T08:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-12T08:43:57+00:00</t>
+    <t>2024-11-12T09:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
+++ b/lp-IG-doctrine-ci-sis/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-12T09:39:38+00:00</t>
+    <t>2024-11-12T14:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
